--- a/owlcms/src/main/resources/templates/registration/RegistrationExport.xlsx
+++ b/owlcms/src/main/resources/templates/registration/RegistrationExport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F0706-A3AD-4E85-A443-510FFEFD97E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B2B09-FE73-43E8-898F-53F8F9C67471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_2Excel_BuiltIn__FilterDatabase_2_1">#REF!</definedName>
     <definedName name="_3Excel_BuiltIn_Criteria_1_1">Athletes!A1:CR106</definedName>
     <definedName name="_4Excel_BuiltIn_Criteria_2_1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Athletes!$N$3940:$AD$10648</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Athletes!$I$3940:$Q$10648</definedName>
     <definedName name="AFF.">Athletes!#REF!</definedName>
     <definedName name="AFF._2">#REF!</definedName>
     <definedName name="Affiliation">Athletes!#REF!</definedName>
@@ -36,7 +36,7 @@
     <definedName name="CLUB">Athletes!#REF!</definedName>
     <definedName name="CLUB_2">#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Athletes!$B$1:$AD$3940</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Athletes!$B$1:$Q$3940</definedName>
     <definedName name="demandé">Athletes!#REF!</definedName>
     <definedName name="demandé_2">#REF!</definedName>
     <definedName name="dernier">Athletes!#REF!</definedName>
@@ -104,17 +104,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>M/F</t>
   </si>
   <si>
-    <t>${t.get("Results.Snatch")} ${t.get("Results.Declaration_abbrev")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.CJ_abbrev")} ${t.get("Results.Declaration_abbrev")}</t>
-  </si>
-  <si>
     <t>${t.get("Group")}</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>${t.get("Registration.birth")}</t>
   </si>
   <si>
-    <t>${t.get("Scoreboard.BodyWeight")}</t>
-  </si>
-  <si>
     <t>${t.get("Card.category")}</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>${t.get("FirstName")}</t>
   </si>
   <si>
-    <t>${t.get("Card.lotNumber")}</t>
-  </si>
-  <si>
     <t>${t.get("Membership")}</t>
   </si>
   <si>
@@ -157,33 +145,18 @@
     <t>${l.membership}</t>
   </si>
   <si>
-    <t>${l.lotNumber}</t>
-  </si>
-  <si>
     <t>${l.lastName}</t>
   </si>
   <si>
     <t>${l.firstName}</t>
   </si>
   <si>
-    <t>${l.bodyWeight}</t>
-  </si>
-  <si>
     <t>${l.club}</t>
   </si>
   <si>
     <t>${l.formattedBirth}</t>
   </si>
   <si>
-    <t>${l.snatch1Declaration}</t>
-  </si>
-  <si>
-    <t>${l.cleanJerk1Declaration}</t>
-  </si>
-  <si>
-    <t>${l.group}</t>
-  </si>
-  <si>
     <t>${l.entryTotal}</t>
   </si>
   <si>
@@ -304,24 +277,6 @@
     <t>${t.get("StartTime")}</t>
   </si>
   <si>
-    <t>${t.get("Coach")}</t>
-  </si>
-  <si>
-    <t>${l.coach}</t>
-  </si>
-  <si>
-    <t>${t.get("Custom1.Title")}</t>
-  </si>
-  <si>
-    <t>${l.custom1}</t>
-  </si>
-  <si>
-    <t>${l.custom2}</t>
-  </si>
-  <si>
-    <t>${t.get("Custom2.Title")}</t>
-  </si>
-  <si>
     <t>${t.get("Group.Description")}</t>
   </si>
   <si>
@@ -341,47 +296,16 @@
   </si>
   <si>
     <t>${l.allCategoriesAsString}</t>
-  </si>
-  <si>
-    <t>${l.federationCodes}</t>
-  </si>
-  <si>
-    <t>${t.get("Registration.FederationCodesShort")}</t>
-  </si>
-  <si>
-    <t>${t.get("PersonalBestSnatch")}</t>
-  </si>
-  <si>
-    <t>${t.get("PersonalBestCleanJerk")}</t>
-  </si>
-  <si>
-    <t>${t.get("PersonalBestTotal")}</t>
-  </si>
-  <si>
-    <t>${l.personalBestSnatch}</t>
-  </si>
-  <si>
-    <t>${l.personalBestCleanJerk}</t>
-  </si>
-  <si>
-    <t>${l.personalBestTotal}</t>
-  </si>
-  <si>
-    <t>${l.presumedBodyWeight}</t>
-  </si>
-  <si>
-    <t>${t.get("ComputedWeightClass")}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0;;"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,12 +335,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -531,7 +449,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,20 +602,8 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="31"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -715,30 +621,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -852,42 +734,42 @@
   </borders>
   <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,9 +798,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,22 +809,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -955,27 +823,17 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1016,7 +874,23 @@
     <cellStyle name="Title" xfId="33" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="34" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1405,107 +1279,61 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:II4"/>
+  <dimension ref="A1:HV123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="11" width="6.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="26.5703125" customWidth="1"/>
-    <col min="18" max="21" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:243" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:230" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:230" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:243" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1720,125 +1548,1266 @@
       <c r="HN2"/>
       <c r="HO2"/>
       <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2" s="1"/>
-      <c r="IE2" s="1"/>
-      <c r="IF2" s="2"/>
-      <c r="IG2" s="1"/>
-      <c r="IH2" s="1"/>
-      <c r="II2" s="1"/>
-    </row>
-    <row r="3" spans="1:243" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="HQ2" s="1"/>
+      <c r="HR2" s="1"/>
+      <c r="HS2" s="2"/>
+      <c r="HT2" s="1"/>
+      <c r="HU2" s="1"/>
+      <c r="HV2" s="1"/>
+    </row>
+    <row r="3" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:243" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="ID4" s="1"/>
-      <c r="IE4" s="1"/>
-      <c r="IF4" s="2"/>
-      <c r="IG4" s="1"/>
-      <c r="IH4" s="1"/>
-      <c r="II4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4"/>
+      <c r="HQ4" s="1"/>
+      <c r="HR4" s="1"/>
+      <c r="HS4" s="2"/>
+      <c r="HT4" s="1"/>
+      <c r="HU4" s="1"/>
+      <c r="HV4" s="1"/>
+    </row>
+    <row r="5" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="17"/>
+    </row>
+    <row r="122" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="17"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C3:F3">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:E3">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-  </dataValidations>
+  <conditionalFormatting sqref="B5:E123">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F123">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="61" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1857,172 +2826,172 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="16.42578125" style="9" customWidth="1"/>
     <col min="6" max="21" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:22" s="20" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:22" s="15" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="V2" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="1"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="O4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="P4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/owlcms/src/main/resources/templates/registration/RegistrationExport.xlsx
+++ b/owlcms/src/main/resources/templates/registration/RegistrationExport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B2B09-FE73-43E8-898F-53F8F9C67471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D111975-E16A-47B8-9AB5-B914BB376B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>M/F</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>${l.allCategoriesAsString}</t>
+  </si>
+  <si>
+    <t>${l.group}</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1297,7 @@
     <col min="4" max="4" width="19.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:230" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,6 +1324,9 @@
       </c>
       <c r="H1" s="7" t="s">
         <v>2</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:230" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1580,6 +1586,9 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1588,6 +1597,7 @@
       <c r="D4" s="1"/>
       <c r="G4" s="3"/>
       <c r="H4"/>
+      <c r="I4"/>
       <c r="HQ4" s="1"/>
       <c r="HR4" s="1"/>
       <c r="HS4" s="2"/>
@@ -1604,6 +1614,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
       <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -1614,6 +1625,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
       <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -1624,6 +1636,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -1634,6 +1647,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -1644,6 +1658,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -1654,6 +1669,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
@@ -1664,6 +1680,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
@@ -1674,6 +1691,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
@@ -1684,6 +1702,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
       <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
@@ -1694,6 +1713,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
       <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1704,6 +1724,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:230" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
@@ -1714,8 +1735,9 @@
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
       <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -1724,8 +1746,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -1734,8 +1757,9 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -1744,8 +1768,9 @@
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1754,8 +1779,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
       <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -1764,8 +1790,9 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -1774,8 +1801,9 @@
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -1784,8 +1812,9 @@
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
       <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -1794,8 +1823,9 @@
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -1804,8 +1834,9 @@
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -1814,8 +1845,9 @@
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
@@ -1824,8 +1856,9 @@
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -1834,8 +1867,9 @@
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
@@ -1844,8 +1878,9 @@
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
@@ -1854,8 +1889,9 @@
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
       <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -1864,8 +1900,9 @@
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
       <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -1874,8 +1911,9 @@
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
       <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -1884,8 +1922,9 @@
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
       <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
@@ -1894,8 +1933,9 @@
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
       <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
@@ -1904,8 +1944,9 @@
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
       <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
@@ -1914,8 +1955,9 @@
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
       <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -1924,8 +1966,9 @@
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
       <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
@@ -1934,8 +1977,9 @@
       <c r="F38" s="13"/>
       <c r="G38" s="14"/>
       <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
@@ -1944,8 +1988,9 @@
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
       <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -1954,8 +1999,9 @@
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
       <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -1964,8 +2010,9 @@
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
       <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
@@ -1974,8 +2021,9 @@
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
       <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -1984,8 +2032,9 @@
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
       <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -1994,8 +2043,9 @@
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
       <c r="H44" s="17"/>
-    </row>
-    <row r="45" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -2004,8 +2054,9 @@
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
       <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
@@ -2014,8 +2065,9 @@
       <c r="F46" s="13"/>
       <c r="G46" s="14"/>
       <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
@@ -2024,8 +2076,9 @@
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
       <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
@@ -2034,8 +2087,9 @@
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
       <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
@@ -2044,8 +2098,9 @@
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
       <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
@@ -2054,8 +2109,9 @@
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
       <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
@@ -2064,8 +2120,9 @@
       <c r="F51" s="13"/>
       <c r="G51" s="14"/>
       <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -2074,8 +2131,9 @@
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
       <c r="H52" s="17"/>
-    </row>
-    <row r="53" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
@@ -2084,8 +2142,9 @@
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
       <c r="H53" s="17"/>
-    </row>
-    <row r="54" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
@@ -2094,8 +2153,9 @@
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
       <c r="H54" s="17"/>
-    </row>
-    <row r="55" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
@@ -2104,8 +2164,9 @@
       <c r="F55" s="13"/>
       <c r="G55" s="14"/>
       <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
@@ -2114,8 +2175,9 @@
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
       <c r="H56" s="17"/>
-    </row>
-    <row r="57" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
@@ -2124,8 +2186,9 @@
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
       <c r="H57" s="17"/>
-    </row>
-    <row r="58" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13"/>
@@ -2134,8 +2197,9 @@
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
       <c r="H58" s="17"/>
-    </row>
-    <row r="59" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
@@ -2144,8 +2208,9 @@
       <c r="F59" s="13"/>
       <c r="G59" s="14"/>
       <c r="H59" s="17"/>
-    </row>
-    <row r="60" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="13"/>
@@ -2154,8 +2219,9 @@
       <c r="F60" s="13"/>
       <c r="G60" s="14"/>
       <c r="H60" s="17"/>
-    </row>
-    <row r="61" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
@@ -2164,8 +2230,9 @@
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
       <c r="H61" s="17"/>
-    </row>
-    <row r="62" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
@@ -2174,8 +2241,9 @@
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
       <c r="H62" s="17"/>
-    </row>
-    <row r="63" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13"/>
@@ -2184,8 +2252,9 @@
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
       <c r="H63" s="17"/>
-    </row>
-    <row r="64" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
@@ -2194,8 +2263,9 @@
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
       <c r="H64" s="17"/>
-    </row>
-    <row r="65" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="13"/>
@@ -2204,8 +2274,9 @@
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
       <c r="H65" s="17"/>
-    </row>
-    <row r="66" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="13"/>
@@ -2214,8 +2285,9 @@
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
       <c r="H66" s="17"/>
-    </row>
-    <row r="67" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13"/>
@@ -2224,8 +2296,9 @@
       <c r="F67" s="13"/>
       <c r="G67" s="14"/>
       <c r="H67" s="17"/>
-    </row>
-    <row r="68" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="13"/>
@@ -2234,8 +2307,9 @@
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
       <c r="H68" s="17"/>
-    </row>
-    <row r="69" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
@@ -2244,8 +2318,9 @@
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
       <c r="H69" s="17"/>
-    </row>
-    <row r="70" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
@@ -2254,8 +2329,9 @@
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
       <c r="H70" s="17"/>
-    </row>
-    <row r="71" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
@@ -2264,8 +2340,9 @@
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
       <c r="H71" s="17"/>
-    </row>
-    <row r="72" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="13"/>
@@ -2274,8 +2351,9 @@
       <c r="F72" s="13"/>
       <c r="G72" s="14"/>
       <c r="H72" s="17"/>
-    </row>
-    <row r="73" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="13"/>
@@ -2284,8 +2362,9 @@
       <c r="F73" s="13"/>
       <c r="G73" s="14"/>
       <c r="H73" s="17"/>
-    </row>
-    <row r="74" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="13"/>
@@ -2294,8 +2373,9 @@
       <c r="F74" s="13"/>
       <c r="G74" s="14"/>
       <c r="H74" s="17"/>
-    </row>
-    <row r="75" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="13"/>
@@ -2304,8 +2384,9 @@
       <c r="F75" s="13"/>
       <c r="G75" s="14"/>
       <c r="H75" s="17"/>
-    </row>
-    <row r="76" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="13"/>
@@ -2314,8 +2395,9 @@
       <c r="F76" s="13"/>
       <c r="G76" s="14"/>
       <c r="H76" s="17"/>
-    </row>
-    <row r="77" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="13"/>
@@ -2324,8 +2406,9 @@
       <c r="F77" s="13"/>
       <c r="G77" s="14"/>
       <c r="H77" s="17"/>
-    </row>
-    <row r="78" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="13"/>
@@ -2334,8 +2417,9 @@
       <c r="F78" s="13"/>
       <c r="G78" s="14"/>
       <c r="H78" s="17"/>
-    </row>
-    <row r="79" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="13"/>
@@ -2344,8 +2428,9 @@
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
       <c r="H79" s="17"/>
-    </row>
-    <row r="80" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="13"/>
@@ -2354,8 +2439,9 @@
       <c r="F80" s="13"/>
       <c r="G80" s="14"/>
       <c r="H80" s="17"/>
-    </row>
-    <row r="81" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="13"/>
@@ -2364,8 +2450,9 @@
       <c r="F81" s="13"/>
       <c r="G81" s="14"/>
       <c r="H81" s="17"/>
-    </row>
-    <row r="82" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13"/>
@@ -2374,8 +2461,9 @@
       <c r="F82" s="13"/>
       <c r="G82" s="14"/>
       <c r="H82" s="17"/>
-    </row>
-    <row r="83" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="13"/>
@@ -2384,8 +2472,9 @@
       <c r="F83" s="13"/>
       <c r="G83" s="14"/>
       <c r="H83" s="17"/>
-    </row>
-    <row r="84" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13"/>
@@ -2394,8 +2483,9 @@
       <c r="F84" s="13"/>
       <c r="G84" s="14"/>
       <c r="H84" s="17"/>
-    </row>
-    <row r="85" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13"/>
@@ -2404,8 +2494,9 @@
       <c r="F85" s="13"/>
       <c r="G85" s="14"/>
       <c r="H85" s="17"/>
-    </row>
-    <row r="86" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="13"/>
@@ -2414,8 +2505,9 @@
       <c r="F86" s="13"/>
       <c r="G86" s="14"/>
       <c r="H86" s="17"/>
-    </row>
-    <row r="87" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
@@ -2424,8 +2516,9 @@
       <c r="F87" s="13"/>
       <c r="G87" s="14"/>
       <c r="H87" s="17"/>
-    </row>
-    <row r="88" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
@@ -2434,8 +2527,9 @@
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
       <c r="H88" s="17"/>
-    </row>
-    <row r="89" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
@@ -2444,8 +2538,9 @@
       <c r="F89" s="13"/>
       <c r="G89" s="14"/>
       <c r="H89" s="17"/>
-    </row>
-    <row r="90" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
@@ -2454,8 +2549,9 @@
       <c r="F90" s="13"/>
       <c r="G90" s="14"/>
       <c r="H90" s="17"/>
-    </row>
-    <row r="91" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
@@ -2464,8 +2560,9 @@
       <c r="F91" s="13"/>
       <c r="G91" s="14"/>
       <c r="H91" s="17"/>
-    </row>
-    <row r="92" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
@@ -2474,8 +2571,9 @@
       <c r="F92" s="13"/>
       <c r="G92" s="14"/>
       <c r="H92" s="17"/>
-    </row>
-    <row r="93" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
@@ -2484,8 +2582,9 @@
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
       <c r="H93" s="17"/>
-    </row>
-    <row r="94" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
@@ -2494,8 +2593,9 @@
       <c r="F94" s="13"/>
       <c r="G94" s="14"/>
       <c r="H94" s="17"/>
-    </row>
-    <row r="95" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
@@ -2504,8 +2604,9 @@
       <c r="F95" s="13"/>
       <c r="G95" s="14"/>
       <c r="H95" s="17"/>
-    </row>
-    <row r="96" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="12"/>
       <c r="C96" s="13"/>
@@ -2514,8 +2615,9 @@
       <c r="F96" s="13"/>
       <c r="G96" s="14"/>
       <c r="H96" s="17"/>
-    </row>
-    <row r="97" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="12"/>
       <c r="C97" s="13"/>
@@ -2524,8 +2626,9 @@
       <c r="F97" s="13"/>
       <c r="G97" s="14"/>
       <c r="H97" s="17"/>
-    </row>
-    <row r="98" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="12"/>
       <c r="C98" s="13"/>
@@ -2534,8 +2637,9 @@
       <c r="F98" s="13"/>
       <c r="G98" s="14"/>
       <c r="H98" s="17"/>
-    </row>
-    <row r="99" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
@@ -2544,8 +2648,9 @@
       <c r="F99" s="13"/>
       <c r="G99" s="14"/>
       <c r="H99" s="17"/>
-    </row>
-    <row r="100" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="13"/>
@@ -2554,8 +2659,9 @@
       <c r="F100" s="13"/>
       <c r="G100" s="14"/>
       <c r="H100" s="17"/>
-    </row>
-    <row r="101" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
@@ -2564,8 +2670,9 @@
       <c r="F101" s="13"/>
       <c r="G101" s="14"/>
       <c r="H101" s="17"/>
-    </row>
-    <row r="102" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="12"/>
       <c r="C102" s="13"/>
@@ -2574,8 +2681,9 @@
       <c r="F102" s="13"/>
       <c r="G102" s="14"/>
       <c r="H102" s="17"/>
-    </row>
-    <row r="103" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
@@ -2584,8 +2692,9 @@
       <c r="F103" s="13"/>
       <c r="G103" s="14"/>
       <c r="H103" s="17"/>
-    </row>
-    <row r="104" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="12"/>
       <c r="C104" s="13"/>
@@ -2594,8 +2703,9 @@
       <c r="F104" s="13"/>
       <c r="G104" s="14"/>
       <c r="H104" s="17"/>
-    </row>
-    <row r="105" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="12"/>
       <c r="C105" s="13"/>
@@ -2604,8 +2714,9 @@
       <c r="F105" s="13"/>
       <c r="G105" s="14"/>
       <c r="H105" s="17"/>
-    </row>
-    <row r="106" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="12"/>
       <c r="C106" s="13"/>
@@ -2614,8 +2725,9 @@
       <c r="F106" s="13"/>
       <c r="G106" s="14"/>
       <c r="H106" s="17"/>
-    </row>
-    <row r="107" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
@@ -2624,8 +2736,9 @@
       <c r="F107" s="13"/>
       <c r="G107" s="14"/>
       <c r="H107" s="17"/>
-    </row>
-    <row r="108" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
@@ -2634,8 +2747,9 @@
       <c r="F108" s="13"/>
       <c r="G108" s="14"/>
       <c r="H108" s="17"/>
-    </row>
-    <row r="109" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="12"/>
       <c r="C109" s="13"/>
@@ -2644,8 +2758,9 @@
       <c r="F109" s="13"/>
       <c r="G109" s="14"/>
       <c r="H109" s="17"/>
-    </row>
-    <row r="110" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="17"/>
+    </row>
+    <row r="110" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="12"/>
       <c r="C110" s="13"/>
@@ -2654,8 +2769,9 @@
       <c r="F110" s="13"/>
       <c r="G110" s="14"/>
       <c r="H110" s="17"/>
-    </row>
-    <row r="111" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="12"/>
       <c r="C111" s="13"/>
@@ -2664,8 +2780,9 @@
       <c r="F111" s="13"/>
       <c r="G111" s="14"/>
       <c r="H111" s="17"/>
-    </row>
-    <row r="112" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="12"/>
       <c r="C112" s="13"/>
@@ -2674,8 +2791,9 @@
       <c r="F112" s="13"/>
       <c r="G112" s="14"/>
       <c r="H112" s="17"/>
-    </row>
-    <row r="113" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="17"/>
+    </row>
+    <row r="113" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="12"/>
       <c r="C113" s="13"/>
@@ -2684,8 +2802,9 @@
       <c r="F113" s="13"/>
       <c r="G113" s="14"/>
       <c r="H113" s="17"/>
-    </row>
-    <row r="114" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="17"/>
+    </row>
+    <row r="114" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="12"/>
       <c r="C114" s="13"/>
@@ -2694,8 +2813,9 @@
       <c r="F114" s="13"/>
       <c r="G114" s="14"/>
       <c r="H114" s="17"/>
-    </row>
-    <row r="115" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="17"/>
+    </row>
+    <row r="115" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="12"/>
       <c r="C115" s="13"/>
@@ -2704,8 +2824,9 @@
       <c r="F115" s="13"/>
       <c r="G115" s="14"/>
       <c r="H115" s="17"/>
-    </row>
-    <row r="116" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="17"/>
+    </row>
+    <row r="116" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="12"/>
       <c r="C116" s="13"/>
@@ -2714,8 +2835,9 @@
       <c r="F116" s="13"/>
       <c r="G116" s="14"/>
       <c r="H116" s="17"/>
-    </row>
-    <row r="117" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="17"/>
+    </row>
+    <row r="117" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="12"/>
       <c r="C117" s="13"/>
@@ -2724,8 +2846,9 @@
       <c r="F117" s="13"/>
       <c r="G117" s="14"/>
       <c r="H117" s="17"/>
-    </row>
-    <row r="118" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="17"/>
+    </row>
+    <row r="118" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="12"/>
       <c r="C118" s="13"/>
@@ -2734,8 +2857,9 @@
       <c r="F118" s="13"/>
       <c r="G118" s="14"/>
       <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="17"/>
+    </row>
+    <row r="119" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="12"/>
       <c r="C119" s="13"/>
@@ -2744,8 +2868,9 @@
       <c r="F119" s="13"/>
       <c r="G119" s="14"/>
       <c r="H119" s="17"/>
-    </row>
-    <row r="120" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="17"/>
+    </row>
+    <row r="120" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="12"/>
       <c r="C120" s="13"/>
@@ -2754,8 +2879,9 @@
       <c r="F120" s="13"/>
       <c r="G120" s="14"/>
       <c r="H120" s="17"/>
-    </row>
-    <row r="121" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="17"/>
+    </row>
+    <row r="121" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
       <c r="C121" s="13"/>
@@ -2764,8 +2890,9 @@
       <c r="F121" s="13"/>
       <c r="G121" s="14"/>
       <c r="H121" s="17"/>
-    </row>
-    <row r="122" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I121" s="17"/>
+    </row>
+    <row r="122" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="12"/>
       <c r="C122" s="13"/>
@@ -2774,8 +2901,9 @@
       <c r="F122" s="13"/>
       <c r="G122" s="14"/>
       <c r="H122" s="17"/>
-    </row>
-    <row r="123" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I122" s="17"/>
+    </row>
+    <row r="123" spans="1:9" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="12"/>
       <c r="C123" s="13"/>
@@ -2784,6 +2912,7 @@
       <c r="F123" s="13"/>
       <c r="G123" s="14"/>
       <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0"/>
@@ -2793,13 +2922,13 @@
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="B5:E123">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:E123">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
